--- a/SMC Challenge 6/eligibility criteria/Dataset1_Performance_Status_Trials_First.xlsx
+++ b/SMC Challenge 6/eligibility criteria/Dataset1_Performance_Status_Trials_First.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACEA73-F1E0-453E-8A83-8122F00C4E6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E099B-CBDC-426E-890A-F3B576DC39D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1142">
   <si>
     <t>official_title</t>
   </si>
@@ -3365,15 +3365,9 @@
     <t xml:space="preserve">(C19998&lt;=28) or (C19999&lt;=28) </t>
   </si>
   <si>
-    <t>((C105715=1) or (C105714=1) or (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) and C25150&gt;16)) or ((C70541=1) or (C70542=1) or (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1) and (C25150&lt;=16))</t>
-  </si>
-  <si>
     <t xml:space="preserve">(C105722=1)  or (C105723=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) </t>
   </si>
   <si>
-    <t>(C105722&lt;=7) or (C105723&lt;=7) or (C105725&lt;=7) or (C105726)&lt;=7)</t>
-  </si>
-  <si>
     <t>(C19998=1 or C19999=1) and (C19998&lt;=14  or C19999&lt;=14)</t>
   </si>
   <si>
@@ -3390,9 +3384,6 @@
   </si>
   <si>
     <t>(C105722=1) or  (C105723=1)</t>
-  </si>
-  <si>
-    <t>((C105722=1) or (C105723=1) or (C105724=1)) and ((C105722&lt;=28) or C105723&lt;=28) or (C105725&lt;=28))</t>
   </si>
   <si>
     <t>((C19998=1) or (C19999=1)) and ((C19998&lt;=28) or (C19999&lt;=28))</t>
@@ -3408,16 +3399,10 @@
     <t>((C25150&gt;16) and (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1)) or ((C25150&lt;=16) and ((C69423=1) or (C69424=1) or (C69425=1) or (C69426=1)))</t>
   </si>
   <si>
-    <t>((C25150&gt;16) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or ((C25150&lt;=16) and (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1))</t>
-  </si>
-  <si>
     <t xml:space="preserve">((C25150&gt;16) and (C105712&lt;=14) or (C105711&lt;=14) or (C105710&lt;=14) or (C105709&lt;=14) or (C105707&lt;=14)) or ((C25150&lt;=16) and (C69422&lt;=14) or (C69423&lt;=14) or (C69424&lt;=14) or (C69425&lt;=14) or (C69426&lt;=14))
 </t>
   </si>
   <si>
-    <t>((C25150&gt;16) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or ((C25150&lt;=16) and (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1))</t>
-  </si>
-  <si>
     <t xml:space="preserve">((C105711=1) or (C105710=1) or (C105709=1) or (C105707=1)) and (C25150&gt;16)
 </t>
   </si>
@@ -3432,9 +3417,6 @@
     <t>((C105722=1) or (C105723=1)  or (C105725=1) or (C105726=1) and (C25150&lt;=70)) or ((C105722=1) or (C105723=1) or (C105725=1)  and (C25150&gt;70))</t>
   </si>
   <si>
-    <t>((C25150&gt;16) and (C105713&lt;=7) or (C105712&lt;=7) or (C105711&lt;=7) or (C105710&lt;=7) or (C105709&lt;=7) or (C105707=1)&lt;=7)) or ((C25150&lt;=16) and (C69421&lt;=7) or (C69422&lt;=7) or (C69423&lt;=7) or (C69424&lt;=7) or (C69425&lt;=7) or (C69426&lt;=7))</t>
-  </si>
-  <si>
     <t>(((C25150&gt;16) and (C105713=1)) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1)) or ((C25150&lt;=16) and ((C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1)))</t>
   </si>
   <si>
@@ -3444,34 +3426,55 @@
     <t>(C105722=1) or (C105723=1) or (C105710=1) or (C105709=1) or (C105707=1)</t>
   </si>
   <si>
-    <t>((C25150&gt;16) and (C105713&lt;=14) or (C105712&lt;=14) or (C105711&lt;=14) or (C105710&lt;=14) or (C105709&lt;=14) or (C105707&lt;=14) or ((C25150&lt;=16) and (C69421&lt;=14) or (C69422&lt;=14) or (C69423&lt;=14) or (C69424&lt;=14) or (C69425&lt;=14) or (C69426&lt;=14))</t>
-  </si>
-  <si>
     <t>((C25150&lt;70) and ((C105722=1) or (C105723=1) or (C105725=1) or (C105726=1))) or ((C25150&gt;=70) and (C105722=1)  or (C105723=1) or (C105725=1))</t>
   </si>
   <si>
     <t>(C19998=1 or C19999=1) and (C19998&lt;14 or C19999&lt;14)</t>
   </si>
   <si>
-    <t>((C25150&gt;18) and (C105722=1) or (C105723=1) or (C105725=1)) or (((C25150&gt;10) and (C25150&lt;18)) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1))) or ((C25150&lt;=10) and (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1))</t>
-  </si>
-  <si>
     <t>((C19998=1) or (C19999=1)) and ((C19998&lt;21) or (C19999&lt;21))</t>
   </si>
   <si>
-    <t xml:space="preserve">(C105722=1) or (C105723=1) or (C105725=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or (C102408&lt;2 and C38644=1 and C3242=1) or (C100417&lt;60% and C38644=1 and C3242=1))  </t>
-  </si>
-  <si>
     <t>((C19998=1) or (C19999=1) or (C17846=1)) and ((C19998&lt;45) or (C19999&lt;45) or (C17846&lt;45))</t>
   </si>
   <si>
-    <t>((C19998=1) or (C19999=1) or (C17846=1)) and ((C19998&lt;60) or (C19999&lt;60) or (C17846&lt;60)</t>
-  </si>
-  <si>
     <t>((C19998=1) or (C19999=1) or (C17846=1)) and ((C19998&lt;30) or (C19999&lt;30) or (C17846&lt;30))</t>
   </si>
   <si>
     <t>((C105722=1) or (C105723=1)) and (C99547&gt;=3)</t>
+  </si>
+  <si>
+    <t>(C105715=1 or C105714=1 or C105713=1 or C105712=1 or C105711=1 or C105710=1 or C105709=1 or C105707=1 and C25150&gt;16) or (C70541=1 or C70542=1 or C69421=1 or C69422=1 or C69423=1 or C69424=1 or C69425=1 or C69426=1 and C25150&lt;=16)</t>
+  </si>
+  <si>
+    <t>(C105722&lt;=7) or (C105723&lt;=7) or (C105725&lt;=7) or (C105726&lt;=7)</t>
+  </si>
+  <si>
+    <t>((C25150&gt;18) and (C105722=1) or (C105723=1) or (C105725=1)) or (C25150&gt;10 and C25150&lt;18 and C105713=1 or C105712=1 or C105711=1 or C105710=1 or C105709=1 or C105707=1) or ((C25150&lt;=10) and (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1))</t>
+  </si>
+  <si>
+    <t>((C25150&gt;16) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1)) or ((C25150&lt;=16) and (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1))</t>
+  </si>
+  <si>
+    <t>((C25150&gt;16) and (C105713&lt;=14) or (C105712&lt;=14) or (C105711&lt;=14) or (C105710&lt;=14) or (C105709&lt;=14) or (C105707&lt;=14)) or ((C25150&lt;=16) and (C69421&lt;=14) or (C69422&lt;=14) or (C69423&lt;=14) or (C69424&lt;=14) or (C69425&lt;=14) or (C69426&lt;=14))</t>
+  </si>
+  <si>
+    <t>(C25150&gt;16) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or (C25150&lt;=16) and (C69421=1) or (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1)</t>
+  </si>
+  <si>
+    <t>(C105722=1) or (C105723=1) or (C105725=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or (C102408&lt;2 and C38644=1 and C3242=1) or (C100417&lt;60 and C38644=1 and C3242=1)</t>
+  </si>
+  <si>
+    <t>(C25150&gt;16) and (C105713=1) or (C105712=1) or (C105711=1) or (C105710=1) or (C105709=1) or (C105707=1) or (C25150&lt;=16) and (C69422=1) or (C69423=1) or (C69424=1) or (C69425=1) or (C69426=1)</t>
+  </si>
+  <si>
+    <t>(C19998=1) or (C19999=1) or (C17846=1) and (C19998&lt;60) or (C19999&lt;60) or (C17846&lt;60)</t>
+  </si>
+  <si>
+    <t>(C25150&gt;16) and (C105713&lt;=7) or (C105712&lt;=7) or (C105711&lt;=7) or (C105710&lt;=7) or (C105709&lt;=7) or (C105707&lt;=7) or (C25150&lt;=16) and (C69421&lt;=7) or (C69422&lt;=7) or (C69423&lt;=7) or (C69424&lt;=7) or (C69425&lt;=7) or (C69426&lt;=7)</t>
+  </si>
+  <si>
+    <t>(C105722=1) or (C105723=1) or (C105724=1) and (C105722&lt;=28) or C105723&lt;=28 or (C105725&lt;=28)</t>
   </si>
 </sst>
 </file>
@@ -4019,7 +4022,7 @@
   <dimension ref="A1:H653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="9" t="s">
-        <v>1106</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4343,7 +4346,7 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4907,7 +4910,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4949,7 +4952,7 @@
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="11" t="s">
-        <v>1108</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5119,7 +5122,7 @@
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="18" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5176,7 +5179,7 @@
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5373,7 +5376,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5478,7 +5481,7 @@
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="10" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="240" x14ac:dyDescent="0.25">
@@ -5535,7 +5538,7 @@
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="10" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5580,7 +5583,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>214</v>
       </c>
@@ -5598,7 +5601,7 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5724,7 +5727,7 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5907,7 +5910,7 @@
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5970,7 +5973,7 @@
       </c>
       <c r="F99" s="21"/>
       <c r="G99" s="21" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6096,7 +6099,7 @@
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="21" t="s">
-        <v>1120</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6117,7 +6120,7 @@
       </c>
       <c r="F106" s="21"/>
       <c r="G106" s="21" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6180,7 +6183,7 @@
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="13" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6540,7 +6543,7 @@
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="21" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6743,7 +6746,7 @@
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="9" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6785,7 +6788,7 @@
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="21" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -6806,7 +6809,7 @@
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="30" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6905,7 +6908,7 @@
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="9" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -6962,7 +6965,7 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7004,7 +7007,7 @@
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="21" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7235,7 +7238,7 @@
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="9" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -7270,7 +7273,7 @@
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="9" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7291,7 +7294,7 @@
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7457,7 +7460,7 @@
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="10" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7499,7 +7502,7 @@
       </c>
       <c r="F174" s="21"/>
       <c r="G174" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7760,7 +7763,7 @@
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="9" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7931,7 +7934,7 @@
       </c>
       <c r="F196" s="21"/>
       <c r="G196" s="21" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="270" x14ac:dyDescent="0.25">
@@ -7973,7 +7976,7 @@
       </c>
       <c r="F198" s="11"/>
       <c r="G198" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8015,7 +8018,7 @@
       </c>
       <c r="F200" s="21"/>
       <c r="G200" s="21" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -8036,7 +8039,7 @@
       </c>
       <c r="F201" s="18"/>
       <c r="G201" s="18" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -8057,7 +8060,7 @@
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="9" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8141,7 +8144,7 @@
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="13" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8240,7 +8243,7 @@
       </c>
       <c r="F211" s="21"/>
       <c r="G211" s="21" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -8282,7 +8285,7 @@
       </c>
       <c r="F213" s="18"/>
       <c r="G213" s="18" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8555,7 +8558,7 @@
       </c>
       <c r="F226" s="12"/>
       <c r="G226" s="9" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -8893,7 +8896,7 @@
       </c>
       <c r="F243" s="21"/>
       <c r="G243" s="21" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8977,7 +8980,7 @@
       </c>
       <c r="F247" s="12"/>
       <c r="G247" s="9" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9355,7 +9358,7 @@
       </c>
       <c r="F265" s="8"/>
       <c r="G265" s="9" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9587,7 +9590,7 @@
       </c>
       <c r="F277" s="18"/>
       <c r="G277" s="13" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9798,7 +9801,7 @@
       </c>
       <c r="F288" s="13"/>
       <c r="G288" s="18" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9840,7 +9843,7 @@
       </c>
       <c r="F290" s="13"/>
       <c r="G290" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -12614,7 +12617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
